--- a/raw_data/20200818_saline/20200818_Sensor3_Test_22.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_22.xlsx
@@ -1,855 +1,1271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BAE94F-669B-482A-9358-DC672AD8ABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>19457.492023</v>
+        <v>19457.492022999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.404859</v>
+        <v>5.4048590000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1138.470000</v>
+        <v>1138.47</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.512000</v>
+        <v>-256.512</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>19467.880760</v>
+        <v>19467.88076</v>
       </c>
       <c r="G2" s="1">
-        <v>5.407745</v>
+        <v>5.4077450000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>1160.020000</v>
+        <v>1160.02</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.669000</v>
+        <v>-214.66900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>19478.106252</v>
+        <v>19478.106252000001</v>
       </c>
       <c r="L2" s="1">
-        <v>5.410585</v>
+        <v>5.4105850000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1187.090000</v>
+        <v>1187.0899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.947000</v>
+        <v>-148.947</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>19488.234094</v>
+        <v>19488.234093999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.413398</v>
+        <v>5.4133979999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1194.410000</v>
+        <v>1194.4100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.001000</v>
+        <v>-127.001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>19498.496575</v>
+        <v>19498.496575000001</v>
       </c>
       <c r="V2" s="1">
-        <v>5.416249</v>
+        <v>5.4162489999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>1201.480000</v>
+        <v>1201.48</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.277000</v>
+        <v>-106.277</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>19508.581938</v>
+        <v>19508.581937999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.419051</v>
+        <v>5.4190509999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.658500</v>
+        <v>-89.658500000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>19518.841685</v>
+        <v>19518.841684999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.421900</v>
+        <v>5.4218999999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1213.080000</v>
+        <v>1213.08</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.216300</v>
+        <v>-85.216300000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>19529.280488</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.424800</v>
+        <v>5.4248000000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.833300</v>
+        <v>-88.833299999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>19539.878048</v>
+        <v>19539.878047999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.427744</v>
+        <v>5.4277439999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.996000</v>
+        <v>-100.996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>19550.884234</v>
+        <v>19550.884234000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.430801</v>
+        <v>5.4308009999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>1237.830000</v>
+        <v>1237.83</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.284000</v>
+        <v>-120.28400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>19562.001565</v>
+        <v>19562.001564999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.433889</v>
+        <v>5.4338889999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.766000</v>
+        <v>-137.76599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>19572.943842</v>
+        <v>19572.943842000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.436929</v>
+        <v>5.4369290000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.364000</v>
+        <v>-219.364</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>19583.962965</v>
+        <v>19583.962964999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.439990</v>
+        <v>5.4399899999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.002000</v>
+        <v>-355.00200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>19595.433904</v>
+        <v>19595.433904000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.443176</v>
+        <v>5.4431760000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.323000</v>
+        <v>-576.32299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>19606.154435</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.446154</v>
+        <v>5.4461539999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1598.980000</v>
+        <v>1598.98</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.556000</v>
+        <v>-826.55600000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>19616.852148</v>
+        <v>19616.852148000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.449126</v>
+        <v>5.4491259999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1750.130000</v>
+        <v>1750.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1099.860000</v>
+        <v>-1099.8599999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>19627.804309</v>
+        <v>19627.804308999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.452168</v>
+        <v>5.4521680000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>2165.770000</v>
+        <v>2165.77</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1764.140000</v>
+        <v>-1764.14</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>19457.881413</v>
+        <v>19457.881412999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.404967</v>
+        <v>5.4049670000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1138.700000</v>
+        <v>1138.7</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.834000</v>
+        <v>-256.834</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>19468.295912</v>
+        <v>19468.295912000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.407860</v>
+        <v>5.4078600000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1159.530000</v>
+        <v>1159.53</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.379000</v>
+        <v>-215.37899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>19478.454475</v>
+        <v>19478.454474999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.410682</v>
+        <v>5.4106820000000004</v>
       </c>
       <c r="M3" s="1">
-        <v>1187.250000</v>
+        <v>1187.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.979000</v>
+        <v>-148.97900000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>19488.616013</v>
+        <v>19488.616012999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.413504</v>
+        <v>5.4135039999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1194.490000</v>
+        <v>1194.49</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.044000</v>
+        <v>-127.044</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>19498.873744</v>
       </c>
       <c r="V3" s="1">
-        <v>5.416354</v>
+        <v>5.4163540000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1201.450000</v>
+        <v>1201.45</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.247000</v>
+        <v>-106.247</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>19509.012174</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.419170</v>
+        <v>5.4191700000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>1208.500000</v>
+        <v>1208.5</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.609700</v>
+        <v>-89.609700000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>19519.261797</v>
+        <v>19519.261796999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.422017</v>
+        <v>5.4220170000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1213.150000</v>
+        <v>1213.1500000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.301900</v>
+        <v>-85.301900000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>19529.689688</v>
+        <v>19529.689687999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.424914</v>
+        <v>5.4249140000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.838800</v>
+        <v>-88.838800000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>19540.253513</v>
@@ -858,422 +1274,422 @@
         <v>5.427848</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1227.850000</v>
+        <v>1227.8499999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.974000</v>
+        <v>-100.974</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>19551.253754</v>
+        <v>19551.253754000001</v>
       </c>
       <c r="AU3" s="1">
         <v>5.430904</v>
       </c>
       <c r="AV3" s="1">
-        <v>1237.850000</v>
+        <v>1237.8499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.297000</v>
+        <v>-120.297</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>19562.361696</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.433989</v>
+        <v>5.4339890000000004</v>
       </c>
       <c r="BA3" s="1">
-        <v>1246.270000</v>
+        <v>1246.27</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.776000</v>
+        <v>-137.77600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>19573.693757</v>
+        <v>19573.693757000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.437137</v>
+        <v>5.4371369999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1286.310000</v>
+        <v>1286.31</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.340000</v>
+        <v>-219.34</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>19584.717342</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.440199</v>
+        <v>5.4401989999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1355.530000</v>
+        <v>1355.53</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.033000</v>
+        <v>-355.03300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>19595.841648</v>
+        <v>19595.841648000001</v>
       </c>
       <c r="BO3" s="1">
         <v>5.443289</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.387000</v>
+        <v>-576.38699999999994</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>19606.601329</v>
+        <v>19606.601329000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.446278</v>
+        <v>5.4462780000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1598.970000</v>
+        <v>1598.97</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.546000</v>
+        <v>-826.54600000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>19617.314915</v>
+        <v>19617.314914999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.449254</v>
+        <v>5.4492539999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1750.380000</v>
+        <v>1750.38</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1099.920000</v>
+        <v>-1099.92</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>19628.656470</v>
+        <v>19628.656470000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.452405</v>
+        <v>5.4524049999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>2167.750000</v>
+        <v>2167.75</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1764.080000</v>
+        <v>-1764.08</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>19458.222133</v>
+        <v>19458.222132999999</v>
       </c>
       <c r="B4" s="1">
         <v>5.405062</v>
       </c>
       <c r="C4" s="1">
-        <v>1138.700000</v>
+        <v>1138.7</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.516000</v>
+        <v>-256.51600000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>19468.642087</v>
       </c>
       <c r="G4" s="1">
-        <v>5.407956</v>
+        <v>5.4079560000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1160.390000</v>
+        <v>1160.3900000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-215.528000</v>
+        <v>-215.52799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>19478.804154</v>
+        <v>19478.804154000001</v>
       </c>
       <c r="L4" s="1">
-        <v>5.410779</v>
+        <v>5.4107789999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1187.130000</v>
+        <v>1187.1300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.837000</v>
+        <v>-148.83699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>19489.038109</v>
+        <v>19489.038109000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.413622</v>
+        <v>5.4136220000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1194.550000</v>
+        <v>1194.55</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.026000</v>
+        <v>-127.026</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>19499.299311</v>
+        <v>19499.299310999999</v>
       </c>
       <c r="V4" s="1">
-        <v>5.416472</v>
+        <v>5.4164719999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.308000</v>
+        <v>-106.30800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>19509.346769</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.419263</v>
+        <v>5.4192629999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.738500</v>
+        <v>-89.738500000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>19519.571796</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.422103</v>
+        <v>5.4221029999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1213.070000</v>
+        <v>1213.07</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.301300</v>
+        <v>-85.301299999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>19530.024982</v>
+        <v>19530.024981999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>5.425007</v>
+        <v>5.4250069999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.855700</v>
+        <v>-88.855699999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>19540.616057</v>
+        <v>19540.616056999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.427949</v>
+        <v>5.4279489999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.963000</v>
+        <v>-100.96299999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>19551.616330</v>
+        <v>19551.616330000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.431005</v>
+        <v>5.4310049999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1237.840000</v>
+        <v>1237.8399999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.298000</v>
+        <v>-120.298</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>19563.085361</v>
+        <v>19563.085361000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.434190</v>
+        <v>5.4341900000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.758000</v>
+        <v>-137.75800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>19574.053852</v>
+        <v>19574.053852000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.437237</v>
+        <v>5.4372369999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1286.320000</v>
+        <v>1286.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.328000</v>
+        <v>-219.328</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>19585.117613</v>
+        <v>19585.117612999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.440310</v>
+        <v>5.4403100000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1355.520000</v>
+        <v>1355.52</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.021000</v>
+        <v>-355.02100000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>19596.255279</v>
+        <v>19596.255279000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.443404</v>
+        <v>5.4434040000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.407000</v>
+        <v>-576.40700000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>19607.327472</v>
+        <v>19607.327472000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.446480</v>
+        <v>5.4464800000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1599.060000</v>
+        <v>1599.06</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.566000</v>
+        <v>-826.56600000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>19618.062881</v>
+        <v>19618.062881000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.449462</v>
+        <v>5.4494619999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1750.240000</v>
+        <v>1750.24</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1099.810000</v>
+        <v>-1099.81</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>19628.909432</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.452475</v>
+        <v>5.4524749999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>2168.010000</v>
+        <v>2168.0100000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1762.390000</v>
+        <v>-1762.39</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>19458.562918</v>
       </c>
       <c r="B5" s="1">
-        <v>5.405156</v>
+        <v>5.4051559999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1138.320000</v>
+        <v>1138.32</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.684000</v>
+        <v>-256.68400000000003</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>19468.986311</v>
+        <v>19468.986311000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.408052</v>
+        <v>5.4080519999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>1160.270000</v>
+        <v>1160.27</v>
       </c>
       <c r="I5" s="1">
-        <v>-213.435000</v>
+        <v>-213.435</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>19479.223274</v>
@@ -1282,255 +1698,255 @@
         <v>5.410895</v>
       </c>
       <c r="M5" s="1">
-        <v>1186.950000</v>
+        <v>1186.95</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.135000</v>
+        <v>-149.13499999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>19489.335180</v>
+        <v>19489.335179999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.413704</v>
+        <v>5.4137040000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1194.550000</v>
+        <v>1194.55</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.086000</v>
+        <v>-127.086</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>19499.564671</v>
       </c>
       <c r="V5" s="1">
-        <v>5.416546</v>
+        <v>5.4165460000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.232000</v>
+        <v>-106.232</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>19509.692513</v>
+        <v>19509.692513000002</v>
       </c>
       <c r="AA5" s="1">
         <v>5.419359</v>
       </c>
       <c r="AB5" s="1">
-        <v>1208.600000</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.633100</v>
+        <v>-89.633099999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>19519.909076</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.422197</v>
+        <v>5.4221969999999997</v>
       </c>
       <c r="AG5" s="1">
-        <v>1212.960000</v>
+        <v>1212.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.318700</v>
+        <v>-85.318700000000007</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>19530.387558</v>
+        <v>19530.387557999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.425108</v>
+        <v>5.4251079999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.905000</v>
+        <v>-88.905000000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>19541.334761</v>
+        <v>19541.334760999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.428149</v>
+        <v>5.4281490000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1227.820000</v>
+        <v>1227.82</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.939000</v>
+        <v>-100.93899999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>19552.347929</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.431208</v>
+        <v>5.4312079999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1237.820000</v>
+        <v>1237.82</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.287000</v>
+        <v>-120.28700000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>19563.460298</v>
+        <v>19563.460298000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.434295</v>
+        <v>5.4342949999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.766000</v>
+        <v>-137.76599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>19574.415462</v>
+        <v>19574.415462000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.437338</v>
+        <v>5.4373379999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1286.320000</v>
+        <v>1286.32</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.321000</v>
+        <v>-219.321</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>19585.492620</v>
+        <v>19585.492620000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.440415</v>
+        <v>5.4404149999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1355.530000</v>
+        <v>1355.53</v>
       </c>
       <c r="BL5" s="1">
-        <v>-354.991000</v>
+        <v>-354.99099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>19596.954321</v>
+        <v>19596.954321000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.443598</v>
+        <v>5.4435979999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.325000</v>
+        <v>-576.32500000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>19607.446017</v>
+        <v>19607.446016999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.446513</v>
+        <v>5.4465130000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1599.210000</v>
+        <v>1599.21</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.525000</v>
+        <v>-826.52499999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>19618.211681</v>
+        <v>19618.211681000001</v>
       </c>
       <c r="BY5" s="1">
         <v>5.449503</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1099.870000</v>
+        <v>-1099.8699999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>19629.441107</v>
+        <v>19629.441106999999</v>
       </c>
       <c r="CD5" s="1">
         <v>5.452623</v>
       </c>
       <c r="CE5" s="1">
-        <v>2165.520000</v>
+        <v>2165.52</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1762.990000</v>
+        <v>-1762.99</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>19459.000038</v>
+        <v>19459.000037999998</v>
       </c>
       <c r="B6" s="1">
         <v>5.405278</v>
       </c>
       <c r="C6" s="1">
-        <v>1138.600000</v>
+        <v>1138.5999999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-256.522000</v>
+        <v>-256.52199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>19469.425768</v>
+        <v>19469.425768000001</v>
       </c>
       <c r="G6" s="1">
-        <v>5.408174</v>
+        <v>5.4081739999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1160.070000</v>
+        <v>1160.07</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.650000</v>
+        <v>-214.65</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>19479.497065</v>
@@ -1539,240 +1955,240 @@
         <v>5.410971</v>
       </c>
       <c r="M6" s="1">
-        <v>1186.940000</v>
+        <v>1186.94</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.988000</v>
+        <v>-148.988</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>19489.687340</v>
+        <v>19489.68734</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.413802</v>
+        <v>5.4138019999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.107000</v>
+        <v>-127.107</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>19499.905422</v>
       </c>
       <c r="V6" s="1">
-        <v>5.416640</v>
+        <v>5.4166400000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.372000</v>
+        <v>-106.372</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>19510.039217</v>
+        <v>19510.039217000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.419455</v>
+        <v>5.4194550000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1208.670000</v>
+        <v>1208.67</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.612300</v>
+        <v>-89.612300000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>19520.250323</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.422292</v>
+        <v>5.4222919999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1213.020000</v>
+        <v>1213.02</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.436300</v>
+        <v>-85.436300000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>19531.082976</v>
+        <v>19531.082976000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.425301</v>
+        <v>5.4253010000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.900400</v>
+        <v>-88.900400000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>19541.722135</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.428256</v>
+        <v>5.4282560000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.947000</v>
+        <v>-100.947</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>19552.738776</v>
+        <v>19552.738775999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.431316</v>
+        <v>5.4313159999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1237.840000</v>
+        <v>1237.8399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.295000</v>
+        <v>-120.295</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>19563.837257</v>
+        <v>19563.837256999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>5.434399</v>
       </c>
       <c r="BA6" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.741000</v>
+        <v>-137.74100000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>19575.082555</v>
+        <v>19575.082555000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.437523</v>
+        <v>5.4375229999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.317000</v>
+        <v>-219.31700000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>19586.180080</v>
+        <v>19586.180079999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.440606</v>
+        <v>5.4406059999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.009000</v>
+        <v>-355.00900000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>19597.069743</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.443630</v>
+        <v>5.4436299999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.378000</v>
+        <v>-576.37800000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>19607.882000</v>
+        <v>19607.882000000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.446634</v>
+        <v>5.4466340000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1599.230000</v>
+        <v>1599.23</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.509000</v>
+        <v>-826.50900000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>19618.632785</v>
+        <v>19618.632785000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.449620</v>
+        <v>5.4496200000000004</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1750.160000</v>
+        <v>1750.16</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1100.010000</v>
+        <v>-1100.01</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>19629.981746</v>
+        <v>19629.981746000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.452773</v>
+        <v>5.4527729999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>2167.830000</v>
+        <v>2167.83</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1763.690000</v>
+        <v>-1763.69</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>19459.277620</v>
+        <v>19459.277620000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.405355</v>
+        <v>5.4053550000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1138.520000</v>
+        <v>1138.52</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.637000</v>
+        <v>-256.637</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>19469.683686</v>
@@ -1781,148 +2197,148 @@
         <v>5.408245</v>
       </c>
       <c r="H7" s="1">
-        <v>1159.460000</v>
+        <v>1159.46</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.307000</v>
+        <v>-215.30699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>19479.837288</v>
+        <v>19479.837287999999</v>
       </c>
       <c r="L7" s="1">
-        <v>5.411066</v>
+        <v>5.4110659999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1187.370000</v>
+        <v>1187.3699999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.718000</v>
+        <v>-148.71799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>19490.035563</v>
+        <v>19490.035563000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.413899</v>
+        <v>5.4138989999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1194.430000</v>
+        <v>1194.43</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.028000</v>
+        <v>-127.02800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>19500.248158</v>
+        <v>19500.248157999999</v>
       </c>
       <c r="V7" s="1">
-        <v>5.416736</v>
+        <v>5.4167360000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1201.470000</v>
+        <v>1201.47</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.469000</v>
+        <v>-106.46899999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>19510.736095</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.419649</v>
+        <v>5.4196489999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.711100</v>
+        <v>-89.711100000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>19520.968038</v>
+        <v>19520.968037999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.422491</v>
+        <v>5.4224909999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1213.010000</v>
+        <v>1213.01</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.298300</v>
+        <v>-85.298299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>19531.430676</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.425397</v>
+        <v>5.4253970000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.851500</v>
+        <v>-88.851500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>19542.110998</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.428364</v>
+        <v>5.4283640000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.945000</v>
+        <v>-100.94499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>19553.101850</v>
+        <v>19553.101849999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.431417</v>
+        <v>5.4314169999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1237.820000</v>
+        <v>1237.82</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.296000</v>
+        <v>-120.29600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>19564.497470</v>
+        <v>19564.497469999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.434583</v>
+        <v>5.4345829999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.748000</v>
+        <v>-137.74799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>19575.524986</v>
@@ -1931,348 +2347,348 @@
         <v>5.437646</v>
       </c>
       <c r="BF7" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.343000</v>
+        <v>-219.34299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>19586.289165</v>
+        <v>19586.289164999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.440636</v>
+        <v>5.4406359999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1355.530000</v>
+        <v>1355.53</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.042000</v>
+        <v>-355.04199999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>19597.493790</v>
+        <v>19597.49379</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.443748</v>
+        <v>5.4437480000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.361000</v>
+        <v>-576.36099999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>19608.311039</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.446753</v>
+        <v>5.4467530000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1599.350000</v>
+        <v>1599.35</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.493000</v>
+        <v>-826.49300000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>19619.059346</v>
+        <v>19619.059345999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.449739</v>
+        <v>5.4497390000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1750.040000</v>
+        <v>1750.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1100.010000</v>
+        <v>-1100.01</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>19630.521889</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.452923</v>
+        <v>5.4529230000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>2166.060000</v>
+        <v>2166.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1762.130000</v>
+        <v>-1762.13</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>19459.618371</v>
       </c>
       <c r="B8" s="1">
-        <v>5.405450</v>
+        <v>5.4054500000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1138.230000</v>
+        <v>1138.23</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.708000</v>
+        <v>-256.70800000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19470.016006</v>
+        <v>19470.016006000002</v>
       </c>
       <c r="G8" s="1">
-        <v>5.408338</v>
+        <v>5.4083379999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1160.000000</v>
+        <v>1160</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.867000</v>
+        <v>-214.86699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>19480.186473</v>
+        <v>19480.186473000002</v>
       </c>
       <c r="L8" s="1">
-        <v>5.411163</v>
+        <v>5.4111630000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1187.630000</v>
+        <v>1187.6300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.061000</v>
+        <v>-149.06100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>19490.733434</v>
+        <v>19490.733434000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.414093</v>
+        <v>5.4140930000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>1194.480000</v>
+        <v>1194.48</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.997000</v>
+        <v>-126.997</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>19500.939580</v>
+        <v>19500.939579999998</v>
       </c>
       <c r="V8" s="1">
-        <v>5.416928</v>
+        <v>5.4169280000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.369000</v>
+        <v>-106.369</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>19511.086240</v>
+        <v>19511.086240000001</v>
       </c>
       <c r="AA8" s="1">
         <v>5.419746</v>
       </c>
       <c r="AB8" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.768900</v>
+        <v>-89.768900000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>19521.283491</v>
+        <v>19521.283490999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.422579</v>
+        <v>5.4225789999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1213.060000</v>
+        <v>1213.06</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.337800</v>
+        <v>-85.337800000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>19531.781812</v>
+        <v>19531.781812000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.425495</v>
+        <v>5.4254949999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.905900</v>
+        <v>-88.905900000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>19542.773654</v>
+        <v>19542.773654000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.428548</v>
+        <v>5.4285480000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.973000</v>
+        <v>-100.973</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>19553.785868</v>
+        <v>19553.785867999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.431607</v>
+        <v>5.4316069999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>1237.830000</v>
+        <v>1237.83</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.285000</v>
+        <v>-120.285</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>19564.922009</v>
+        <v>19564.922009000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.434701</v>
+        <v>5.4347009999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.714000</v>
+        <v>-137.714</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>19575.888553</v>
+        <v>19575.888553000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.437747</v>
+        <v>5.4377469999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1286.320000</v>
+        <v>1286.32</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.309000</v>
+        <v>-219.309</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>19586.637854</v>
+        <v>19586.637854000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.440733</v>
+        <v>5.4407329999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1355.540000</v>
+        <v>1355.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.019000</v>
+        <v>-355.01900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>19597.892076</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.443859</v>
+        <v>5.4438589999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.368000</v>
+        <v>-576.36800000000005</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>19608.721764</v>
+        <v>19608.721764000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.446867</v>
+        <v>5.4468670000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1599.360000</v>
+        <v>1599.36</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.634000</v>
+        <v>-826.63400000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>19619.477472</v>
+        <v>19619.477471999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.449855</v>
+        <v>5.4498550000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1750.180000</v>
+        <v>1750.18</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1099.950000</v>
+        <v>-1099.95</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>19631.063025</v>
+        <v>19631.063024999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.453073</v>
+        <v>5.4530729999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2166.550000</v>
+        <v>2166.5500000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1764.390000</v>
+        <v>-1764.39</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>19459.960648</v>
       </c>
@@ -2280,193 +2696,193 @@
         <v>5.405545</v>
       </c>
       <c r="C9" s="1">
-        <v>1138.700000</v>
+        <v>1138.7</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.585000</v>
+        <v>-256.58499999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>19470.366678</v>
+        <v>19470.366677999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5.408435</v>
+        <v>5.4084349999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1159.300000</v>
+        <v>1159.3</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.063000</v>
+        <v>-215.06299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>19480.880375</v>
+        <v>19480.880375000001</v>
       </c>
       <c r="L9" s="1">
-        <v>5.411356</v>
+        <v>5.4113559999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1187.290000</v>
+        <v>1187.29</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.936000</v>
+        <v>-148.93600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>19491.069194</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.414186</v>
+        <v>5.4141859999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1194.490000</v>
+        <v>1194.49</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.996000</v>
+        <v>-126.996</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>19501.282316</v>
+        <v>19501.282316000001</v>
       </c>
       <c r="V9" s="1">
-        <v>5.417023</v>
+        <v>5.4170230000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>1201.390000</v>
+        <v>1201.3900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.361000</v>
+        <v>-106.361</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>19511.438399</v>
+        <v>19511.438398999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.419844</v>
+        <v>5.4198440000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.639500</v>
+        <v>-89.639499999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>19521.935729</v>
+        <v>19521.935729000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.422760</v>
+        <v>5.4227600000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1213.080000</v>
+        <v>1213.08</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.296800</v>
+        <v>-85.296800000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>19532.435539</v>
+        <v>19532.435538999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.425677</v>
+        <v>5.4256770000000003</v>
       </c>
       <c r="AL9" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.897500</v>
+        <v>-88.897499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>19543.193270</v>
+        <v>19543.19327</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.428665</v>
+        <v>5.4286649999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1227.850000</v>
+        <v>1227.8499999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.968000</v>
+        <v>-100.968</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>19554.195030</v>
+        <v>19554.195029999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.431721</v>
+        <v>5.4317209999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>1237.820000</v>
+        <v>1237.82</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.268000</v>
+        <v>-120.268</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>19565.299000</v>
+        <v>19565.298999999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.434805</v>
+        <v>5.4348049999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.722000</v>
+        <v>-137.72200000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>19576.252617</v>
+        <v>19576.252616999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.437848</v>
+        <v>5.4378479999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.312000</v>
+        <v>-219.31200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>19587.022253</v>
+        <v>19587.022252999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.440840</v>
+        <v>5.4408399999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1355.520000</v>
+        <v>1355.52</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.013000</v>
+        <v>-355.01299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>19598.311727</v>
@@ -2475,392 +2891,392 @@
         <v>5.443975</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.359000</v>
+        <v>-576.35900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>19609.154265</v>
+        <v>19609.154265000001</v>
       </c>
       <c r="BT9" s="1">
         <v>5.446987</v>
       </c>
       <c r="BU9" s="1">
-        <v>1599.530000</v>
+        <v>1599.53</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.531000</v>
+        <v>-826.53099999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>19619.926352</v>
+        <v>19619.926351999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.449980</v>
+        <v>5.44998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1750.110000</v>
+        <v>1750.11</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1099.950000</v>
+        <v>-1099.95</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>19631.600224</v>
+        <v>19631.600224000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.453222</v>
+        <v>5.4532220000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>2168.220000</v>
+        <v>2168.2199999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1762.540000</v>
+        <v>-1762.54</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>19460.644098</v>
+        <v>19460.644098000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.405734</v>
+        <v>5.4057339999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1138.410000</v>
+        <v>1138.4100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.754000</v>
+        <v>-256.75400000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>19471.087860</v>
+        <v>19471.08786</v>
       </c>
       <c r="G10" s="1">
-        <v>5.408636</v>
+        <v>5.4086360000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1159.950000</v>
+        <v>1159.95</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.286000</v>
+        <v>-215.286</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>19481.225591</v>
+        <v>19481.225590999999</v>
       </c>
       <c r="L10" s="1">
-        <v>5.411452</v>
+        <v>5.4114519999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1187.120000</v>
+        <v>1187.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.894000</v>
+        <v>-148.89400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>19491.430556</v>
+        <v>19491.430555999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.414286</v>
+        <v>5.4142859999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>1194.580000</v>
+        <v>1194.58</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.047000</v>
+        <v>-127.047</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>19501.628027</v>
+        <v>19501.628026999999</v>
       </c>
       <c r="V10" s="1">
-        <v>5.417119</v>
+        <v>5.4171189999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.301000</v>
+        <v>-106.301</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>19512.090751</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.420025</v>
+        <v>5.4200249999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.554800</v>
+        <v>-89.5548</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>19522.313697</v>
+        <v>19522.313697000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.422865</v>
+        <v>5.4228649999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1213.080000</v>
+        <v>1213.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.169900</v>
+        <v>-85.169899999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>19532.825897</v>
+        <v>19532.825896999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.425785</v>
+        <v>5.4257850000000003</v>
       </c>
       <c r="AL10" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.909000</v>
+        <v>-88.909000000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>19543.577669</v>
+        <v>19543.577668999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.428772</v>
+        <v>5.4287720000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.960000</v>
+        <v>-100.96</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>19554.561079</v>
+        <v>19554.561078999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.431823</v>
+        <v>5.4318229999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.293000</v>
+        <v>-120.29300000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>19565.677448</v>
+        <v>19565.677447999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.434910</v>
+        <v>5.4349100000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.742000</v>
+        <v>-137.74199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>19576.674255</v>
+        <v>19576.674255000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.437965</v>
+        <v>5.4379650000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1286.310000</v>
+        <v>1286.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.328000</v>
+        <v>-219.328</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>19587.505354</v>
+        <v>19587.505354000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.440974</v>
+        <v>5.4409739999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1355.520000</v>
+        <v>1355.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.054000</v>
+        <v>-355.05399999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>19598.710973</v>
+        <v>19598.710973000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.444086</v>
+        <v>5.4440860000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.740000</v>
+        <v>1468.74</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.361000</v>
+        <v>-576.36099999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>19609.581790</v>
+        <v>19609.58179</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.447106</v>
+        <v>5.4471059999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1599.550000</v>
+        <v>1599.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.594000</v>
+        <v>-826.59400000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>19620.340015</v>
+        <v>19620.340015000002</v>
       </c>
       <c r="BY10" s="1">
         <v>5.450094</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1750.100000</v>
+        <v>1750.1</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1099.990000</v>
+        <v>-1099.99</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>19632.142319</v>
+        <v>19632.142318999999</v>
       </c>
       <c r="CD10" s="1">
         <v>5.453373</v>
       </c>
       <c r="CE10" s="1">
-        <v>2165.310000</v>
+        <v>2165.31</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1762.910000</v>
+        <v>-1762.91</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>19460.987331</v>
       </c>
       <c r="B11" s="1">
-        <v>5.405830</v>
+        <v>5.4058299999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1138.540000</v>
+        <v>1138.54</v>
       </c>
       <c r="D11" s="1">
-        <v>-257.115000</v>
+        <v>-257.11500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>19471.404803</v>
+        <v>19471.404803000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5.408724</v>
+        <v>5.4087240000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>1160.000000</v>
+        <v>1160</v>
       </c>
       <c r="I11" s="1">
-        <v>-215.407000</v>
+        <v>-215.40700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>19481.567862</v>
       </c>
       <c r="L11" s="1">
-        <v>5.411547</v>
+        <v>5.4115469999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1187.430000</v>
+        <v>1187.43</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.663000</v>
+        <v>-148.66300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>19492.085496</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.414468</v>
+        <v>5.4144680000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>1194.500000</v>
+        <v>1194.5</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.093000</v>
+        <v>-127.093</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>19502.268859</v>
       </c>
       <c r="V11" s="1">
-        <v>5.417297</v>
+        <v>5.4172969999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>1201.360000</v>
+        <v>1201.3599999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.268000</v>
+        <v>-106.268</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>19512.483011</v>
@@ -2869,43 +3285,43 @@
         <v>5.420134</v>
       </c>
       <c r="AB11" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.564600</v>
+        <v>-89.564599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>19522.654966</v>
+        <v>19522.654965999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.422960</v>
+        <v>5.4229599999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1213.180000</v>
+        <v>1213.18</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.194000</v>
+        <v>-85.194000000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>19533.176743</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.425882</v>
+        <v>5.4258819999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>1219.890000</v>
+        <v>1219.8900000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.917600</v>
+        <v>-88.917599999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>19543.935781</v>
@@ -2914,136 +3330,136 @@
         <v>5.428871</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.964000</v>
+        <v>-100.964</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>19554.966309</v>
+        <v>19554.966308999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.431935</v>
+        <v>5.4319350000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.286000</v>
+        <v>-120.286</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>19566.094588</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.435026</v>
+        <v>5.4350259999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.737000</v>
+        <v>-137.73699999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>19576.971817</v>
+        <v>19576.971817000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.438048</v>
+        <v>5.4380480000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.308000</v>
+        <v>-219.30799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>19587.782124</v>
+        <v>19587.782124000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.441051</v>
+        <v>5.4410509999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1355.530000</v>
+        <v>1355.53</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.018000</v>
+        <v>-355.01799999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>19599.122651</v>
+        <v>19599.122651000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.444201</v>
+        <v>5.4442009999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.680000</v>
+        <v>1468.68</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.371000</v>
+        <v>-576.37099999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>19609.991486</v>
+        <v>19609.991485999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.447220</v>
+        <v>5.4472199999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1599.680000</v>
+        <v>1599.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.787000</v>
+        <v>-826.78700000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>19620.771076</v>
+        <v>19620.771076000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.450214</v>
+        <v>5.4502139999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1750.060000</v>
+        <v>1750.06</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1100.000000</v>
+        <v>-1100</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>19632.678991</v>
+        <v>19632.678991000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.453522</v>
+        <v>5.4535220000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>2167.440000</v>
+        <v>2167.44</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1763.940000</v>
+        <v>-1763.94</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>19461.332563</v>
       </c>
@@ -3051,542 +3467,542 @@
         <v>5.405926</v>
       </c>
       <c r="C12" s="1">
-        <v>1138.280000</v>
+        <v>1138.28</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.465000</v>
+        <v>-256.46499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>19472.058531</v>
+        <v>19472.058530999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.408905</v>
+        <v>5.4089049999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1159.470000</v>
+        <v>1159.47</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.600000</v>
+        <v>-214.6</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>19482.215142</v>
+        <v>19482.215142000001</v>
       </c>
       <c r="L12" s="1">
-        <v>5.411726</v>
+        <v>5.4117259999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1187.290000</v>
+        <v>1187.29</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.074000</v>
+        <v>-149.07400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>19492.475881</v>
+        <v>19492.475880999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.414577</v>
+        <v>5.4145770000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1194.430000</v>
+        <v>1194.43</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.000000</v>
+        <v>-127</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>19502.660698</v>
       </c>
       <c r="V12" s="1">
-        <v>5.417406</v>
+        <v>5.4174059999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.395000</v>
+        <v>-106.395</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>19512.833149</v>
+        <v>19512.833148999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.420231</v>
+        <v>5.4202310000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.673200</v>
+        <v>-89.673199999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>19522.999184</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.423055</v>
+        <v>5.4230549999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1212.990000</v>
+        <v>1212.99</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.286900</v>
+        <v>-85.286900000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>19533.522769</v>
+        <v>19533.522768999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.425979</v>
+        <v>5.4259789999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1219.890000</v>
+        <v>1219.8900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.906900</v>
+        <v>-88.906899999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>19544.348489</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.428986</v>
+        <v>5.4289860000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1227.860000</v>
+        <v>1227.8599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.949000</v>
+        <v>-100.949</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>19555.288710</v>
+        <v>19555.288710000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.432025</v>
+        <v>5.4320250000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>1237.820000</v>
+        <v>1237.82</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.292000</v>
+        <v>-120.292</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>19566.392182</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.435109</v>
+        <v>5.4351089999999997</v>
       </c>
       <c r="BA12" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.741000</v>
+        <v>-137.74100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>19577.330921</v>
+        <v>19577.330921000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.438147</v>
+        <v>5.4381469999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.312000</v>
+        <v>-219.31200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>19588.171692</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.441159</v>
+        <v>5.4411589999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1355.520000</v>
+        <v>1355.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.011000</v>
+        <v>-355.01100000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>19599.529866</v>
+        <v>19599.529866000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.444314</v>
+        <v>5.4443140000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.406000</v>
+        <v>-576.40599999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>19610.426018</v>
+        <v>19610.426017999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.447341</v>
+        <v>5.4473409999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1599.730000</v>
+        <v>1599.73</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.805000</v>
+        <v>-826.80499999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>19621.216455</v>
+        <v>19621.216455000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.450338</v>
+        <v>5.4503380000000003</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1750.070000</v>
+        <v>1750.07</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1100.080000</v>
+        <v>-1100.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>19633.220159</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.453672</v>
+        <v>5.4536720000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2166.580000</v>
+        <v>2166.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1762.010000</v>
+        <v>-1762.01</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>19461.976848</v>
+        <v>19461.976847999998</v>
       </c>
       <c r="B13" s="1">
-        <v>5.406105</v>
+        <v>5.4061050000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1138.920000</v>
+        <v>1138.92</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.701000</v>
+        <v>-256.70100000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>19472.442466</v>
       </c>
       <c r="G13" s="1">
-        <v>5.409012</v>
+        <v>5.4090119999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1159.950000</v>
+        <v>1159.95</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.377000</v>
+        <v>-215.37700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>19482.607480</v>
+        <v>19482.607479999999</v>
       </c>
       <c r="L13" s="1">
         <v>5.411835</v>
       </c>
       <c r="M13" s="1">
-        <v>1187.220000</v>
+        <v>1187.22</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.215000</v>
+        <v>-149.215</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>19492.824573</v>
+        <v>19492.824573000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.414673</v>
+        <v>5.4146729999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>1194.430000</v>
+        <v>1194.43</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.033000</v>
+        <v>-127.033</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>19502.993018</v>
+        <v>19502.993018000001</v>
       </c>
       <c r="V13" s="1">
-        <v>5.417498</v>
+        <v>5.4174980000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1201.420000</v>
+        <v>1201.42</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.371000</v>
+        <v>-106.371</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>19513.179358</v>
+        <v>19513.179358000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.420328</v>
+        <v>5.4203279999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.536500</v>
+        <v>-89.536500000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>19523.410864</v>
+        <v>19523.410864000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.423170</v>
+        <v>5.4231699999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.115700</v>
+        <v>-85.115700000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>19533.932992</v>
+        <v>19533.932991999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.426092</v>
+        <v>5.4260919999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.942900</v>
+        <v>-88.942899999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>19544.655513</v>
+        <v>19544.655513000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.429071</v>
+        <v>5.4290710000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.941000</v>
+        <v>-100.941</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>19555.653764</v>
+        <v>19555.653763999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.432126</v>
+        <v>5.4321260000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.308000</v>
+        <v>-120.30800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>19566.752282</v>
+        <v>19566.752282000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.435209</v>
+        <v>5.4352090000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.731000</v>
+        <v>-137.73099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>19577.694023</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.438248</v>
+        <v>5.4382479999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.320000</v>
+        <v>-219.32</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>19588.922425</v>
+        <v>19588.922425000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.441367</v>
+        <v>5.4413669999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1355.560000</v>
+        <v>1355.56</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.056000</v>
+        <v>-355.05599999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>19599.953460</v>
+        <v>19599.953460000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.444432</v>
+        <v>5.4444319999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.352000</v>
+        <v>-576.35199999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>19610.852077</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.447459</v>
+        <v>5.4474590000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1599.690000</v>
+        <v>1599.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.815000</v>
+        <v>-826.81500000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>19621.680701</v>
+        <v>19621.680701000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.450467</v>
+        <v>5.4504669999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1750.170000</v>
+        <v>1750.17</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1100.020000</v>
+        <v>-1100.02</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>19633.759774</v>
+        <v>19633.759773999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.453822</v>
+        <v>5.4538219999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>2166.410000</v>
+        <v>2166.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1764.120000</v>
+        <v>-1764.12</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>19462.352321</v>
+        <v>19462.352320999998</v>
       </c>
       <c r="B14" s="1">
-        <v>5.406209</v>
+        <v>5.4062089999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>1138.450000</v>
+        <v>1138.45</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.943000</v>
+        <v>-256.94299999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>19472.787650</v>
+        <v>19472.787649999998</v>
       </c>
       <c r="G14" s="1">
-        <v>5.409108</v>
+        <v>5.4091079999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1159.990000</v>
+        <v>1159.99</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.347000</v>
+        <v>-215.34700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>19482.953158</v>
@@ -3595,330 +4011,330 @@
         <v>5.411931</v>
       </c>
       <c r="M14" s="1">
-        <v>1186.900000</v>
+        <v>1186.9000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.154000</v>
+        <v>-149.154</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>19493.173752</v>
+        <v>19493.173751999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.414770</v>
+        <v>5.4147699999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1194.500000</v>
+        <v>1194.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.015000</v>
+        <v>-127.015</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>19503.346170</v>
+        <v>19503.346170000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.417596</v>
+        <v>5.4175959999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1201.430000</v>
+        <v>1201.43</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.356000</v>
+        <v>-106.35599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>19513.598973</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.420444</v>
+        <v>5.4204439999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1208.650000</v>
+        <v>1208.6500000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.678100</v>
+        <v>-89.678100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>19523.710415</v>
+        <v>19523.710415000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.423253</v>
+        <v>5.4232529999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.260500</v>
+        <v>-85.260499999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>19534.231094</v>
+        <v>19534.231093999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.426175</v>
+        <v>5.4261749999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.957200</v>
+        <v>-88.9572</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>19545.015572</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.429171</v>
+        <v>5.4291710000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.957000</v>
+        <v>-100.95699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>19556.017828</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.432227</v>
+        <v>5.4322270000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1237.810000</v>
+        <v>1237.81</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.306000</v>
+        <v>-120.306</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>19567.112837</v>
+        <v>19567.112837000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.435309</v>
+        <v>5.4353090000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.749000</v>
+        <v>-137.749</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>19578.414214</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.438448</v>
+        <v>5.4384480000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1286.310000</v>
+        <v>1286.31</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.352000</v>
+        <v>-219.352</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>19589.326664</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.441480</v>
+        <v>5.4414800000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1355.550000</v>
+        <v>1355.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.018000</v>
+        <v>-355.01799999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>19600.345819</v>
+        <v>19600.345818999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.444541</v>
+        <v>5.4445410000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.376000</v>
+        <v>-576.37599999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>19611.266698</v>
+        <v>19611.266697999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.447574</v>
+        <v>5.4475740000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1599.760000</v>
+        <v>1599.76</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.891000</v>
+        <v>-826.89099999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>19622.382540</v>
+        <v>19622.382539999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.450662</v>
+        <v>5.4506620000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1750.130000</v>
+        <v>1750.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1099.940000</v>
+        <v>-1099.94</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>19634.599997</v>
+        <v>19634.599997000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.454056</v>
+        <v>5.4540559999999996</v>
       </c>
       <c r="CE14" s="1">
-        <v>2166.110000</v>
+        <v>2166.11</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1762.190000</v>
+        <v>-1762.19</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>19462.699521</v>
+        <v>19462.699520999999</v>
       </c>
       <c r="B15" s="1">
-        <v>5.406305</v>
+        <v>5.4063049999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>1138.330000</v>
+        <v>1138.33</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.729000</v>
+        <v>-256.72899999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>19473.132865</v>
       </c>
       <c r="G15" s="1">
-        <v>5.409204</v>
+        <v>5.4092039999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1159.220000</v>
+        <v>1159.22</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.784000</v>
+        <v>-214.78399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>19483.297878</v>
+        <v>19483.297878000001</v>
       </c>
       <c r="L15" s="1">
-        <v>5.412027</v>
+        <v>5.4120270000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1187.220000</v>
+        <v>1187.22</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.010000</v>
+        <v>-149.01</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>19493.592342</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.414887</v>
+        <v>5.4148870000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1194.510000</v>
+        <v>1194.51</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.076000</v>
+        <v>-127.07599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>19503.782153</v>
       </c>
       <c r="V15" s="1">
-        <v>5.417717</v>
+        <v>5.4177169999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1201.480000</v>
+        <v>1201.48</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.414000</v>
+        <v>-106.414</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>19513.887643</v>
+        <v>19513.887642999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.420524</v>
+        <v>5.4205240000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>1208.640000</v>
+        <v>1208.6400000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.544800</v>
+        <v>-89.544799999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>19524.053150</v>
+        <v>19524.05315</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.423348</v>
+        <v>5.4233479999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1213.060000</v>
+        <v>1213.06</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.322200</v>
+        <v>-85.322199999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>19534.580242</v>
@@ -3927,542 +4343,542 @@
         <v>5.426272</v>
       </c>
       <c r="AL15" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.939900</v>
+        <v>-88.939899999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>19545.377682</v>
+        <v>19545.377681999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.429272</v>
+        <v>5.4292720000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.932000</v>
+        <v>-100.932</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>19556.750932</v>
+        <v>19556.750931999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.432431</v>
+        <v>5.4324310000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.302000</v>
+        <v>-120.30200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>19567.828596</v>
+        <v>19567.828595999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.435508</v>
+        <v>5.4355079999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.755000</v>
+        <v>-137.755</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>19578.816439</v>
+        <v>19578.816438999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.438560</v>
+        <v>5.4385599999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.331000</v>
+        <v>-219.33099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>19589.699656</v>
+        <v>19589.699656000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.441583</v>
+        <v>5.4415829999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.050000</v>
+        <v>-355.05</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>19600.741128</v>
+        <v>19600.741128000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.444650</v>
+        <v>5.4446500000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.680000</v>
+        <v>1468.68</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.316000</v>
+        <v>-576.31600000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>19611.995818</v>
+        <v>19611.995817999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.447777</v>
+        <v>5.4477770000000003</v>
       </c>
       <c r="BU15" s="1">
-        <v>1599.710000</v>
+        <v>1599.71</v>
       </c>
       <c r="BV15" s="1">
-        <v>-827.071000</v>
+        <v>-827.07100000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>19622.548700</v>
+        <v>19622.548699999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.450708</v>
+        <v>5.4507079999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1750.080000</v>
+        <v>1750.08</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1100.030000</v>
+        <v>-1100.03</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>19634.840092</v>
+        <v>19634.840091999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.454122</v>
+        <v>5.4541219999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2166.410000</v>
+        <v>2166.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1761.960000</v>
+        <v>-1761.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>19463.039776</v>
+        <v>19463.039776000001</v>
       </c>
       <c r="B16" s="1">
-        <v>5.406400</v>
+        <v>5.4063999999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>1138.310000</v>
+        <v>1138.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.537000</v>
+        <v>-256.53699999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>19473.554002</v>
+        <v>19473.554002000001</v>
       </c>
       <c r="G16" s="1">
-        <v>5.409321</v>
+        <v>5.4093210000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1159.920000</v>
+        <v>1159.92</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.985000</v>
+        <v>-214.98500000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>19483.710083</v>
+        <v>19483.710083000002</v>
       </c>
       <c r="L16" s="1">
-        <v>5.412142</v>
+        <v>5.4121420000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1186.820000</v>
+        <v>1186.82</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.942000</v>
+        <v>-148.94200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>19493.882006</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.414967</v>
+        <v>5.4149669999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1194.520000</v>
+        <v>1194.52</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.989000</v>
+        <v>-126.989</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>19504.044041</v>
+        <v>19504.044041000001</v>
       </c>
       <c r="V16" s="1">
-        <v>5.417790</v>
+        <v>5.4177900000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.422000</v>
+        <v>-106.422</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>19514.238348</v>
+        <v>19514.238347999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.420622</v>
+        <v>5.4206219999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.552800</v>
+        <v>-89.552800000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>19524.397870</v>
+        <v>19524.397870000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.423444</v>
+        <v>5.4234439999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1212.970000</v>
+        <v>1212.97</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.361000</v>
+        <v>-85.361000000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>19534.927440</v>
+        <v>19534.927439999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.426369</v>
+        <v>5.4263690000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.965400</v>
+        <v>-88.965400000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>19546.097841</v>
+        <v>19546.097840999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.429472</v>
+        <v>5.4294719999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.948000</v>
+        <v>-100.94799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>19557.132338</v>
+        <v>19557.132337999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.432537</v>
+        <v>5.4325369999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1237.810000</v>
+        <v>1237.81</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>19568.187171</v>
+        <v>19568.187171000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.435608</v>
+        <v>5.4356080000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.733000</v>
+        <v>-137.733</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>19579.161653</v>
+        <v>19579.161652999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.438656</v>
+        <v>5.4386559999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.349000</v>
+        <v>-219.34899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>19590.387110</v>
+        <v>19590.38711</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.441774</v>
+        <v>5.4417739999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.056000</v>
+        <v>-355.05599999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>19601.475672</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.444854</v>
+        <v>5.4448540000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.411000</v>
+        <v>-576.41099999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>19612.125802</v>
+        <v>19612.125801999999</v>
       </c>
       <c r="BT16" s="1">
         <v>5.447813</v>
       </c>
       <c r="BU16" s="1">
-        <v>1599.750000</v>
+        <v>1599.75</v>
       </c>
       <c r="BV16" s="1">
-        <v>-827.111000</v>
+        <v>-827.11099999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>19622.973275</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.450826</v>
+        <v>5.4508260000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1750.100000</v>
+        <v>1750.1</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1099.940000</v>
+        <v>-1099.94</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>19635.359869</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.454267</v>
+        <v>5.4542669999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>2165.920000</v>
+        <v>2165.92</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1763.840000</v>
+        <v>-1763.84</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>19463.460383</v>
+        <v>19463.460383000001</v>
       </c>
       <c r="B17" s="1">
         <v>5.406517</v>
       </c>
       <c r="C17" s="1">
-        <v>1138.750000</v>
+        <v>1138.75</v>
       </c>
       <c r="D17" s="1">
-        <v>-256.843000</v>
+        <v>-256.84300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>19473.828784</v>
+        <v>19473.828784000001</v>
       </c>
       <c r="G17" s="1">
-        <v>5.409397</v>
+        <v>5.4093970000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1159.680000</v>
+        <v>1159.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.706000</v>
+        <v>-214.70599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>19484.011619</v>
+        <v>19484.011619000001</v>
       </c>
       <c r="L17" s="1">
-        <v>5.412225</v>
+        <v>5.4122250000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1186.900000</v>
+        <v>1186.9000000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.246000</v>
+        <v>-149.24600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>19494.230695</v>
+        <v>19494.230694999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.415064</v>
+        <v>5.4150640000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1194.500000</v>
+        <v>1194.5</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.016000</v>
+        <v>-127.01600000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>19504.388760</v>
+        <v>19504.388760000002</v>
       </c>
       <c r="V17" s="1">
-        <v>5.417886</v>
+        <v>5.4178860000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.447000</v>
+        <v>-106.447</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>19514.586042</v>
+        <v>19514.586041999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.420718</v>
+        <v>5.4207179999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1208.620000</v>
+        <v>1208.6199999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.552400</v>
+        <v>-89.552400000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>19525.082846</v>
+        <v>19525.082846000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.423634</v>
+        <v>5.4236339999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1213.030000</v>
+        <v>1213.03</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.321000</v>
+        <v>-85.320999999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>19535.626304</v>
+        <v>19535.626304000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.426563</v>
+        <v>5.4265629999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.959200</v>
+        <v>-88.959199999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>19546.457472</v>
+        <v>19546.457471999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.429572</v>
+        <v>5.4295720000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.943000</v>
+        <v>-100.943</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>19557.498883</v>
@@ -4471,679 +4887,679 @@
         <v>5.432639</v>
       </c>
       <c r="AV17" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.316000</v>
+        <v>-120.316</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>19568.547267</v>
+        <v>19568.547267000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>5.435708</v>
       </c>
       <c r="BA17" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.760000</v>
+        <v>-137.76</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>19579.834229</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.438843</v>
+        <v>5.4388430000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.304000</v>
+        <v>-219.304</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>19590.858806</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.441905</v>
+        <v>5.4419050000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1355.520000</v>
+        <v>1355.52</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.035000</v>
+        <v>-355.03500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>19601.984567</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.444996</v>
+        <v>5.4449959999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.363000</v>
+        <v>-576.36300000000006</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>19612.534507</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.447926</v>
+        <v>5.4479259999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1599.680000</v>
+        <v>1599.68</v>
       </c>
       <c r="BV17" s="1">
-        <v>-827.162000</v>
+        <v>-827.16200000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>19623.422651</v>
+        <v>19623.422651000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.450951</v>
+        <v>5.4509509999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.270000</v>
+        <v>1750.27</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1100.110000</v>
+        <v>-1100.1099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>19635.879713</v>
+        <v>19635.879712999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.454411</v>
+        <v>5.4544110000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>2165.480000</v>
+        <v>2165.48</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1763.120000</v>
+        <v>-1763.12</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>19463.739165</v>
+        <v>19463.739164999999</v>
       </c>
       <c r="B18" s="1">
-        <v>5.406594</v>
+        <v>5.4065940000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1138.590000</v>
+        <v>1138.5899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.599000</v>
+        <v>-256.59899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>19474.171995</v>
+        <v>19474.171995000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.409492</v>
+        <v>5.4094920000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1160.630000</v>
+        <v>1160.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.155000</v>
+        <v>-215.155</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>19484.352409</v>
+        <v>19484.352408999999</v>
       </c>
       <c r="L18" s="1">
-        <v>5.412320</v>
+        <v>5.4123200000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1186.970000</v>
+        <v>1186.97</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.069000</v>
+        <v>-149.06899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>19494.580207</v>
+        <v>19494.580206999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.415161</v>
+        <v>5.4151610000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1194.450000</v>
+        <v>1194.45</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.922000</v>
+        <v>-126.922</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>19505.071255</v>
+        <v>19505.071254999999</v>
       </c>
       <c r="V18" s="1">
         <v>5.418075</v>
       </c>
       <c r="W18" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.380000</v>
+        <v>-106.38</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>19515.283386</v>
+        <v>19515.283385999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.420912</v>
+        <v>5.4209120000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1208.530000</v>
+        <v>1208.53</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.601300</v>
+        <v>-89.601299999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>19525.429580</v>
+        <v>19525.42958</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.423730</v>
+        <v>5.4237299999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1213.080000</v>
+        <v>1213.08</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.253500</v>
+        <v>-85.253500000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>19535.974990</v>
+        <v>19535.974989999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.426660</v>
+        <v>5.42666</v>
       </c>
       <c r="AL18" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.961100</v>
+        <v>-88.961100000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>19546.817568</v>
+        <v>19546.817567999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.429672</v>
+        <v>5.4296720000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.936000</v>
+        <v>-100.93600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>19558.163024</v>
+        <v>19558.163024000001</v>
       </c>
       <c r="AU18" s="1">
         <v>5.432823</v>
       </c>
       <c r="AV18" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.303000</v>
+        <v>-120.303</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>19569.210947</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.435892</v>
+        <v>5.4358919999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.768000</v>
+        <v>-137.768</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>19580.282147</v>
+        <v>19580.282147000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.438967</v>
+        <v>5.4389669999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1286.300000</v>
+        <v>1286.3</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.325000</v>
+        <v>-219.32499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>19591.246677</v>
+        <v>19591.246676999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.442013</v>
+        <v>5.4420130000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.032000</v>
+        <v>-355.03199999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>19602.399720</v>
+        <v>19602.399720000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.445111</v>
+        <v>5.4451109999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.437000</v>
+        <v>-576.43700000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>19612.967481</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.448047</v>
+        <v>5.4480469999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1599.500000</v>
+        <v>1599.5</v>
       </c>
       <c r="BV18" s="1">
-        <v>-827.285000</v>
+        <v>-827.28499999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>19623.852192</v>
+        <v>19623.852191999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.451070</v>
+        <v>5.4510699999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1750.240000</v>
+        <v>1750.24</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1100.030000</v>
+        <v>-1100.03</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>19636.429738</v>
+        <v>19636.429737999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.454564</v>
+        <v>5.4545640000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>2166.560000</v>
+        <v>2166.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1761.970000</v>
+        <v>-1761.97</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>19464.081405</v>
+        <v>19464.081405000001</v>
       </c>
       <c r="B19" s="1">
-        <v>5.406689</v>
+        <v>5.4066890000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1138.510000</v>
+        <v>1138.51</v>
       </c>
       <c r="D19" s="1">
-        <v>-256.907000</v>
+        <v>-256.90699999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>19474.518225</v>
       </c>
       <c r="G19" s="1">
-        <v>5.409588</v>
+        <v>5.4095880000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1159.800000</v>
+        <v>1159.8</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.827000</v>
+        <v>-214.827</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>19484.702051</v>
       </c>
       <c r="L19" s="1">
-        <v>5.412417</v>
+        <v>5.4124169999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1186.910000</v>
+        <v>1186.9100000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.189000</v>
+        <v>-149.18899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>19495.274276</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.415354</v>
+        <v>5.4153539999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1194.490000</v>
+        <v>1194.49</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.938000</v>
+        <v>-126.938</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>19505.418983</v>
       </c>
       <c r="V19" s="1">
-        <v>5.418172</v>
+        <v>5.4181720000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1201.440000</v>
+        <v>1201.44</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.369000</v>
+        <v>-106.369</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>19515.631083</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.421009</v>
+        <v>5.4210089999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1208.520000</v>
+        <v>1208.52</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.488100</v>
+        <v>-89.488100000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>19525.770796</v>
+        <v>19525.770796000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.423825</v>
+        <v>5.4238249999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1213.020000</v>
+        <v>1213.02</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.259000</v>
+        <v>-85.259</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>19536.322190</v>
+        <v>19536.322189999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.426756</v>
+        <v>5.4267560000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.999100</v>
+        <v>-88.999099999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>19547.488127</v>
+        <v>19547.488127000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.429858</v>
+        <v>5.4298580000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.943000</v>
+        <v>-100.943</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>19558.625296</v>
+        <v>19558.625295999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.432951</v>
+        <v>5.4329510000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1237.790000</v>
+        <v>1237.79</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.309000</v>
+        <v>-120.309</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>19569.616147</v>
+        <v>19569.616147000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.436004</v>
+        <v>5.4360039999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.748000</v>
+        <v>-137.74799999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>19580.641219</v>
+        <v>19580.641219000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.439067</v>
+        <v>5.4390669999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1286.270000</v>
+        <v>1286.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.329000</v>
+        <v>-219.32900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>19591.623141</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.442118</v>
+        <v>5.4421179999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1355.500000</v>
+        <v>1355.5</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.033000</v>
+        <v>-355.03300000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>19602.801974</v>
+        <v>19602.801974000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.445223</v>
+        <v>5.4452230000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.660000</v>
+        <v>1468.66</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.423000</v>
+        <v>-576.423</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>19613.396026</v>
+        <v>19613.396025999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.448166</v>
+        <v>5.4481659999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1599.570000</v>
+        <v>1599.57</v>
       </c>
       <c r="BV19" s="1">
-        <v>-827.323000</v>
+        <v>-827.32299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>19624.273291</v>
+        <v>19624.273291000001</v>
       </c>
       <c r="BY19" s="1">
         <v>5.451187</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1750.190000</v>
+        <v>1750.19</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1099.890000</v>
+        <v>-1099.8900000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>19636.959961</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.454711</v>
+        <v>5.4547109999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>2165.620000</v>
+        <v>2165.62</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1763.450000</v>
+        <v>-1763.45</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>19464.423614</v>
+        <v>19464.423613999999</v>
       </c>
       <c r="B20" s="1">
         <v>5.406784</v>
       </c>
       <c r="C20" s="1">
-        <v>1138.990000</v>
+        <v>1138.99</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.696000</v>
+        <v>-256.69600000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>19475.208622</v>
+        <v>19475.208621999998</v>
       </c>
       <c r="G20" s="1">
-        <v>5.409780</v>
+        <v>5.4097799999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1160.070000</v>
+        <v>1160.07</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.025000</v>
+        <v>-215.02500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>19485.393970</v>
+        <v>19485.393970000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.412609</v>
+        <v>5.4126089999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1186.590000</v>
+        <v>1186.5899999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.912000</v>
+        <v>-148.91200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>19495.624452</v>
@@ -5152,300 +5568,300 @@
         <v>5.415451</v>
       </c>
       <c r="R20" s="1">
-        <v>1194.470000</v>
+        <v>1194.47</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.964000</v>
+        <v>-126.964</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>19505.762523</v>
+        <v>19505.762523000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.418267</v>
+        <v>5.4182670000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>1201.400000</v>
+        <v>1201.4000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.429000</v>
+        <v>-106.429</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>19515.977289</v>
+        <v>19515.977288999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.421105</v>
+        <v>5.4211049999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.617600</v>
+        <v>-89.617599999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>19526.412653</v>
+        <v>19526.412652999999</v>
       </c>
       <c r="AF20" s="1">
         <v>5.424004</v>
       </c>
       <c r="AG20" s="1">
-        <v>1213.100000</v>
+        <v>1213.0999999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.280200</v>
+        <v>-85.280199999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19536.976415</v>
+        <v>19536.976415000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.426938</v>
+        <v>5.4269379999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.019800</v>
+        <v>-89.019800000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>19547.929104</v>
+        <v>19547.929103999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.429980</v>
+        <v>5.4299799999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1227.840000</v>
+        <v>1227.8399999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.940000</v>
+        <v>-100.94</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>19558.988368</v>
+        <v>19558.988367999998</v>
       </c>
       <c r="AU20" s="1">
         <v>5.433052</v>
       </c>
       <c r="AV20" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.312000</v>
+        <v>-120.312</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>19570.011955</v>
+        <v>19570.011955000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.436114</v>
+        <v>5.4361139999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.724000</v>
+        <v>-137.72399999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>19581.005779</v>
+        <v>19581.005778999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.439168</v>
+        <v>5.4391679999999996</v>
       </c>
       <c r="BF20" s="1">
-        <v>1286.270000</v>
+        <v>1286.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.336000</v>
+        <v>-219.33600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>19592.049733</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.442236</v>
+        <v>5.4422360000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.033000</v>
+        <v>-355.03300000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>19603.231013</v>
+        <v>19603.231013000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.445342</v>
+        <v>5.4453420000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.660000</v>
+        <v>1468.66</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.392000</v>
+        <v>-576.39200000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>19613.809688</v>
+        <v>19613.809688000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.448280</v>
+        <v>5.4482799999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1599.430000</v>
+        <v>1599.43</v>
       </c>
       <c r="BV20" s="1">
-        <v>-827.411000</v>
+        <v>-827.41099999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>19624.694889</v>
+        <v>19624.694888999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.451304</v>
+        <v>5.4513040000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1750.160000</v>
+        <v>1750.16</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1099.850000</v>
+        <v>-1099.8499999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>19637.481256</v>
+        <v>19637.481255999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.454856</v>
+        <v>5.4548560000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>2167.860000</v>
+        <v>2167.86</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1763.730000</v>
+        <v>-1763.73</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>19465.107631</v>
+        <v>19465.107630999999</v>
       </c>
       <c r="B21" s="1">
-        <v>5.406974</v>
+        <v>5.4069739999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1138.510000</v>
+        <v>1138.51</v>
       </c>
       <c r="D21" s="1">
-        <v>-256.765000</v>
+        <v>-256.76499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>19475.552350</v>
+        <v>19475.552350000002</v>
       </c>
       <c r="G21" s="1">
-        <v>5.409876</v>
+        <v>5.4098759999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1159.810000</v>
+        <v>1159.81</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.497000</v>
+        <v>-214.49700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>19485.741665</v>
+        <v>19485.741665000001</v>
       </c>
       <c r="L21" s="1">
         <v>5.412706</v>
       </c>
       <c r="M21" s="1">
-        <v>1187.030000</v>
+        <v>1187.03</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.953000</v>
+        <v>-148.953</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>19495.971652</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.415548</v>
+        <v>5.4155480000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1194.490000</v>
+        <v>1194.49</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.008000</v>
+        <v>-127.008</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>19506.408470</v>
+        <v>19506.408469999998</v>
       </c>
       <c r="V21" s="1">
-        <v>5.418447</v>
+        <v>5.4184469999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.393000</v>
+        <v>-106.393</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>19516.624599</v>
+        <v>19516.624598999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.421285</v>
+        <v>5.4212850000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1208.570000</v>
+        <v>1208.57</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.597500</v>
+        <v>-89.597499999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>19526.802474</v>
@@ -5454,195 +5870,195 @@
         <v>5.424112</v>
       </c>
       <c r="AG21" s="1">
-        <v>1212.980000</v>
+        <v>1212.98</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.319700</v>
+        <v>-85.319699999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>19537.367274</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.427046</v>
+        <v>5.4270459999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.982200</v>
+        <v>-88.982200000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>19548.277791</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.430077</v>
+        <v>5.4300769999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1227.860000</v>
+        <v>1227.8599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.936000</v>
+        <v>-100.93600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>19559.351439</v>
+        <v>19559.351438999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.433153</v>
+        <v>5.4331529999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1237.810000</v>
+        <v>1237.81</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.325000</v>
+        <v>-120.325</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>19570.356675</v>
+        <v>19570.356674999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.436210</v>
+        <v>5.43621</v>
       </c>
       <c r="BA21" s="1">
-        <v>1246.250000</v>
+        <v>1246.25</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.755000</v>
+        <v>-137.755</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>19581.430387</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.439286</v>
+        <v>5.4392860000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1286.280000</v>
+        <v>1286.28</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.338000</v>
+        <v>-219.33799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>19592.372101</v>
+        <v>19592.372101000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.442326</v>
+        <v>5.4423260000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1355.510000</v>
+        <v>1355.51</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.029000</v>
+        <v>-355.029</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>19603.617397</v>
+        <v>19603.617397000002</v>
       </c>
       <c r="BO21" s="1">
         <v>5.445449</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.670000</v>
+        <v>1468.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.405000</v>
+        <v>-576.40499999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>19614.240215</v>
+        <v>19614.240215000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.448400</v>
+        <v>5.4484000000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1599.390000</v>
+        <v>1599.39</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.506000</v>
+        <v>-827.50599999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>19625.123432</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.451423</v>
+        <v>5.4514230000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1750.370000</v>
+        <v>1750.37</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1099.890000</v>
+        <v>-1099.8900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>19638.347767</v>
+        <v>19638.347766999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.455097</v>
+        <v>5.4550970000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>2166.250000</v>
+        <v>2166.25</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1763.950000</v>
+        <v>-1763.95</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>19465.446892</v>
       </c>
       <c r="B22" s="1">
-        <v>5.407069</v>
+        <v>5.4070689999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1138.850000</v>
+        <v>1138.8499999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.895000</v>
+        <v>-256.89499999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>19475.895085</v>
       </c>
       <c r="G22" s="1">
-        <v>5.409971</v>
+        <v>5.4099709999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>1159.950000</v>
+        <v>1159.95</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.600000</v>
+        <v>-214.6</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>19486.084402</v>
@@ -5651,28 +6067,28 @@
         <v>5.412801</v>
       </c>
       <c r="M22" s="1">
-        <v>1187.130000</v>
+        <v>1187.1300000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.081000</v>
+        <v>-149.08099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>19496.622402</v>
+        <v>19496.622402000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.415728</v>
+        <v>5.4157279999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1194.510000</v>
+        <v>1194.51</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.997000</v>
+        <v>-126.997</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>19506.788901</v>
@@ -5681,103 +6097,103 @@
         <v>5.418552</v>
       </c>
       <c r="W22" s="1">
-        <v>1201.410000</v>
+        <v>1201.4100000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.409000</v>
+        <v>-106.40900000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>19517.024873</v>
+        <v>19517.024872999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.421396</v>
+        <v>5.4213959999999997</v>
       </c>
       <c r="AB22" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.609900</v>
+        <v>-89.609899999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>19527.145706</v>
+        <v>19527.145705999999</v>
       </c>
       <c r="AF22" s="1">
         <v>5.424207</v>
       </c>
       <c r="AG22" s="1">
-        <v>1213.030000</v>
+        <v>1213.03</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.235700</v>
+        <v>-85.235699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>19537.716445</v>
+        <v>19537.716444999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.427143</v>
+        <v>5.4271430000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.932000</v>
+        <v>-88.932000000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>19548.649757</v>
+        <v>19548.649756999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.430180</v>
+        <v>5.43018</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.933000</v>
+        <v>-100.93300000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>19559.766127</v>
+        <v>19559.766126999999</v>
       </c>
       <c r="AU22" s="1">
         <v>5.433268</v>
       </c>
       <c r="AV22" s="1">
-        <v>1237.780000</v>
+        <v>1237.78</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.316000</v>
+        <v>-120.316</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>19570.830353</v>
+        <v>19570.830353000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.436342</v>
+        <v>5.4363419999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1246.260000</v>
+        <v>1246.26</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.750000</v>
+        <v>-137.75</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>19581.725971</v>
@@ -5786,1118 +6202,1119 @@
         <v>5.439368</v>
       </c>
       <c r="BF22" s="1">
-        <v>1286.310000</v>
+        <v>1286.31</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.325000</v>
+        <v>-219.32499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>19592.758489</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.442433</v>
+        <v>5.4424330000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.065000</v>
+        <v>-355.065</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>19604.055364</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.445571</v>
+        <v>5.4455710000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.404000</v>
+        <v>-576.404</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>19614.665286</v>
+        <v>19614.665285999999</v>
       </c>
       <c r="BT22" s="1">
         <v>5.448518</v>
       </c>
       <c r="BU22" s="1">
-        <v>1599.280000</v>
+        <v>1599.28</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.411000</v>
+        <v>-827.41099999999994</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>19625.539613</v>
+        <v>19625.539613000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.451539</v>
+        <v>5.4515390000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1750.230000</v>
+        <v>1750.23</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1099.910000</v>
+        <v>-1099.9100000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>19638.583376</v>
+        <v>19638.583375999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.455162</v>
+        <v>5.4551619999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>2165.820000</v>
+        <v>2165.8200000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1764.240000</v>
+        <v>-1764.24</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>19465.789595</v>
+        <v>19465.789594999998</v>
       </c>
       <c r="B23" s="1">
-        <v>5.407164</v>
+        <v>5.4071639999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1138.510000</v>
+        <v>1138.51</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.712000</v>
+        <v>-256.71199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>19476.555295</v>
+        <v>19476.555294999998</v>
       </c>
       <c r="G23" s="1">
-        <v>5.410154</v>
+        <v>5.4101540000000004</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.190000</v>
+        <v>1160.19</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.366000</v>
+        <v>-215.36600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>19486.726719</v>
+        <v>19486.726718999998</v>
       </c>
       <c r="L23" s="1">
-        <v>5.412980</v>
+        <v>5.4129800000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1187.040000</v>
+        <v>1187.04</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.062000</v>
+        <v>-149.06200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>19497.021186</v>
+        <v>19497.021186000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.415839</v>
+        <v>5.4158390000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1194.460000</v>
+        <v>1194.46</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.928000</v>
+        <v>-126.928</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>19507.133124</v>
       </c>
       <c r="V23" s="1">
-        <v>5.418648</v>
+        <v>5.4186480000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1201.490000</v>
+        <v>1201.49</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.432000</v>
+        <v>-106.432</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>19517.372040</v>
+        <v>19517.372039999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.421492</v>
+        <v>5.4214919999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.505700</v>
+        <v>-89.505700000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>19527.493403</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.424304</v>
+        <v>5.4243040000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1212.970000</v>
+        <v>1212.97</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.236900</v>
+        <v>-85.236900000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>19538.137084</v>
+        <v>19538.137084000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.427260</v>
+        <v>5.4272600000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.923800</v>
+        <v>-88.9238</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>19549.070365</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.430297</v>
+        <v>5.4302970000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1227.850000</v>
+        <v>1227.8499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.933000</v>
+        <v>-100.93300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>19560.080062</v>
+        <v>19560.080062000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.433356</v>
+        <v>5.4333559999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1237.780000</v>
+        <v>1237.78</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.308000</v>
+        <v>-120.30800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>19571.121008</v>
+        <v>19571.121007999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.436423</v>
+        <v>5.4364229999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.731000</v>
+        <v>-137.73099999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>19582.086065</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.439468</v>
+        <v>5.4394679999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1286.260000</v>
+        <v>1286.26</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.329000</v>
+        <v>-219.32900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>19593.147876</v>
+        <v>19593.147875999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.442541</v>
+        <v>5.4425410000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1355.500000</v>
+        <v>1355.5</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.057000</v>
+        <v>-355.05700000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>19604.757699</v>
+        <v>19604.757699000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.445766</v>
+        <v>5.4457659999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.730000</v>
+        <v>1468.73</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.385000</v>
+        <v>-576.38499999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>19615.077958</v>
+        <v>19615.077958000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.448633</v>
+        <v>5.4486330000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1599.240000</v>
+        <v>1599.24</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.448000</v>
+        <v>-827.44799999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>19625.988493</v>
+        <v>19625.988493000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.451663</v>
+        <v>5.4516629999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1750.230000</v>
+        <v>1750.23</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1099.910000</v>
+        <v>-1099.9100000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>19639.075398</v>
+        <v>19639.075398000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.455299</v>
+        <v>5.4552990000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2167.720000</v>
+        <v>2167.7199999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1764.340000</v>
+        <v>-1764.34</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>19466.430954</v>
+        <v>19466.430953999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.407342</v>
+        <v>5.4073419999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1138.280000</v>
+        <v>1138.28</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.608000</v>
+        <v>-256.608</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>19476.933708</v>
       </c>
       <c r="G24" s="1">
-        <v>5.410259</v>
+        <v>5.4102589999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1160.040000</v>
+        <v>1160.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.411000</v>
+        <v>-214.411</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>19487.122031</v>
+        <v>19487.122030999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.413089</v>
+        <v>5.4130890000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>1187.090000</v>
+        <v>1187.0899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.936000</v>
+        <v>-148.93600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>19497.366403</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.415935</v>
+        <v>5.4159350000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>1194.510000</v>
+        <v>1194.51</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.935000</v>
+        <v>-126.935</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>19507.475862</v>
+        <v>19507.475861999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.418743</v>
+        <v>5.4187430000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1201.390000</v>
+        <v>1201.3900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.350000</v>
+        <v>-106.35</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>19517.723736</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.421590</v>
+        <v>5.4215900000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1208.640000</v>
+        <v>1208.6400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.463800</v>
+        <v>-89.463800000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>19527.918970</v>
+        <v>19527.918969999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.424422</v>
+        <v>5.4244219999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1213.000000</v>
+        <v>1213</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.090400</v>
+        <v>-85.090400000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>19538.414839</v>
+        <v>19538.414839000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.427337</v>
+        <v>5.4273369999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.963400</v>
+        <v>-88.963399999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>19549.366477</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.430380</v>
+        <v>5.4303800000000004</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.937000</v>
+        <v>-100.937</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>19560.446145</v>
+        <v>19560.446145000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.433457</v>
+        <v>5.4334569999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.333000</v>
+        <v>-120.333</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>19571.444897</v>
+        <v>19571.444897000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.436512</v>
+        <v>5.4365119999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.770000</v>
+        <v>-137.77000000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>19582.447153</v>
+        <v>19582.447153000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.439569</v>
+        <v>5.4395689999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1286.310000</v>
+        <v>1286.31</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.345000</v>
+        <v>-219.345</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>19593.896306</v>
+        <v>19593.896305999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.442749</v>
+        <v>5.4427490000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1355.500000</v>
+        <v>1355.5</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.031000</v>
+        <v>-355.03100000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>19604.865864</v>
+        <v>19604.865863999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.445796</v>
+        <v>5.4457959999999996</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.660000</v>
+        <v>1468.66</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.373000</v>
+        <v>-576.37300000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>19615.512489</v>
+        <v>19615.512489000001</v>
       </c>
       <c r="BT24" s="1">
         <v>5.448753</v>
       </c>
       <c r="BU24" s="1">
-        <v>1599.140000</v>
+        <v>1599.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.393000</v>
+        <v>-827.39300000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>19626.409559</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.451780</v>
+        <v>5.4517800000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1750.160000</v>
+        <v>1750.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1100.030000</v>
+        <v>-1100.03</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>19639.906197</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.455529</v>
+        <v>5.4555290000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>2167.270000</v>
+        <v>2167.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1761.970000</v>
+        <v>-1761.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>19466.816314</v>
       </c>
       <c r="B25" s="1">
-        <v>5.407449</v>
+        <v>5.4074489999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>1138.580000</v>
+        <v>1138.58</v>
       </c>
       <c r="D25" s="1">
-        <v>-257.089000</v>
+        <v>-257.089</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>19477.277437</v>
+        <v>19477.277437000001</v>
       </c>
       <c r="G25" s="1">
         <v>5.410355</v>
       </c>
       <c r="H25" s="1">
-        <v>1159.820000</v>
+        <v>1159.82</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.280000</v>
+        <v>-215.28</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>19487.470720</v>
+        <v>19487.470720000001</v>
       </c>
       <c r="L25" s="1">
-        <v>5.413186</v>
+        <v>5.4131859999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1186.830000</v>
+        <v>1186.83</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.118000</v>
+        <v>-149.11799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>19497.716081</v>
+        <v>19497.716080999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.416032</v>
+        <v>5.4160320000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>1194.520000</v>
+        <v>1194.52</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.932000</v>
+        <v>-126.932</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>19507.887075</v>
+        <v>19507.887074999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.418858</v>
+        <v>5.4188580000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1201.450000</v>
+        <v>1201.45</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.366000</v>
+        <v>-106.366</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>19518.144808</v>
+        <v>19518.144808000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.421707</v>
+        <v>5.4217069999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1208.580000</v>
+        <v>1208.58</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.566300</v>
+        <v>-89.566299999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>19528.195770</v>
+        <v>19528.195769999998</v>
       </c>
       <c r="AF25" s="1">
         <v>5.424499</v>
       </c>
       <c r="AG25" s="1">
-        <v>1212.740000</v>
+        <v>1212.74</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.421100</v>
+        <v>-85.421099999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>19538.763499</v>
+        <v>19538.763499000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.427434</v>
+        <v>5.4274339999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.919200</v>
+        <v>-88.919200000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>19549.728060</v>
+        <v>19549.728060000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.430480</v>
+        <v>5.4304800000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1227.830000</v>
+        <v>1227.83</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.942000</v>
+        <v>-100.94199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>19560.813149</v>
+        <v>19560.813149000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.433559</v>
+        <v>5.4335589999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1237.790000</v>
+        <v>1237.79</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.293000</v>
+        <v>-120.29300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>19572.161118</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.436711</v>
+        <v>5.4367109999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.735000</v>
+        <v>-137.73500000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>19583.170818</v>
+        <v>19583.170817999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.439770</v>
+        <v>5.4397700000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1286.290000</v>
+        <v>1286.29</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.339000</v>
+        <v>-219.339</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>19594.296082</v>
+        <v>19594.296082000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.442860</v>
+        <v>5.4428599999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1355.500000</v>
+        <v>1355.5</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.033000</v>
+        <v>-355.03300000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>19605.247747</v>
+        <v>19605.247747000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.445902</v>
+        <v>5.4459020000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.680000</v>
+        <v>1468.68</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.375000</v>
+        <v>-576.375</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>19615.940006</v>
+        <v>19615.940006000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.448872</v>
+        <v>5.4488719999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1599.080000</v>
+        <v>1599.08</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.477000</v>
+        <v>-827.47699999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>19627.135024</v>
+        <v>19627.135023999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.451982</v>
+        <v>5.4519820000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1750.190000</v>
+        <v>1750.19</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1100.010000</v>
+        <v>-1100.01</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>19640.112037</v>
+        <v>19640.112036999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.455587</v>
+        <v>5.4555870000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>2165.340000</v>
+        <v>2165.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1762.790000</v>
+        <v>-1762.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>19467.158553</v>
+        <v>19467.158553000001</v>
       </c>
       <c r="B26" s="1">
-        <v>5.407544</v>
+        <v>5.4075439999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>1138.640000</v>
+        <v>1138.6400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.522000</v>
+        <v>-256.52199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>19477.622155</v>
+        <v>19477.622155000001</v>
       </c>
       <c r="G26" s="1">
-        <v>5.410451</v>
+        <v>5.4104510000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1159.860000</v>
+        <v>1159.8599999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-215.050000</v>
+        <v>-215.05</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>19488.022302</v>
+        <v>19488.022302000001</v>
       </c>
       <c r="L26" s="1">
-        <v>5.413340</v>
+        <v>5.4133399999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1186.870000</v>
+        <v>1186.8699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.917000</v>
+        <v>-148.917</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>19498.132720</v>
+        <v>19498.132720000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.416148</v>
+        <v>5.4161479999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>1194.550000</v>
+        <v>1194.55</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.928000</v>
+        <v>-126.928</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>19508.165796</v>
+        <v>19508.165796000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.418935</v>
+        <v>5.4189350000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1201.460000</v>
+        <v>1201.46</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.462000</v>
+        <v>-106.462</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>19518.429041</v>
+        <v>19518.429040999999</v>
       </c>
       <c r="AA26" s="1">
         <v>5.421786</v>
       </c>
       <c r="AB26" s="1">
-        <v>1208.630000</v>
+        <v>1208.6300000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.477000</v>
+        <v>-89.477000000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>19528.544920</v>
+        <v>19528.54492</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.424596</v>
+        <v>5.4245960000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1213.030000</v>
+        <v>1213.03</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.564800</v>
+        <v>-85.564800000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>19539.110698</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.427531</v>
+        <v>5.4275310000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.946200</v>
+        <v>-88.946200000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>19550.091132</v>
+        <v>19550.091132000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.430581</v>
+        <v>5.4305810000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1227.870000</v>
+        <v>1227.8699999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.947000</v>
+        <v>-100.947</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>19561.548717</v>
+        <v>19561.548717000001</v>
       </c>
       <c r="AU26" s="1">
         <v>5.433764</v>
       </c>
       <c r="AV26" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.310000</v>
+        <v>-120.31</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>19572.520222</v>
+        <v>19572.520221999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.436811</v>
+        <v>5.4368109999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>1246.240000</v>
+        <v>1246.24</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.741000</v>
+        <v>-137.74100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>19583.532399</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.439870</v>
+        <v>5.43987</v>
       </c>
       <c r="BF26" s="1">
-        <v>1286.260000</v>
+        <v>1286.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.337000</v>
+        <v>-219.33699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>19594.674567</v>
+        <v>19594.674566999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.442965</v>
+        <v>5.4429650000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1355.490000</v>
+        <v>1355.49</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.070000</v>
+        <v>-355.07</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>19605.975906</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.446104</v>
+        <v>5.4461040000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.391000</v>
+        <v>-576.39099999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>19616.646341</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.449068</v>
+        <v>5.4490679999999996</v>
       </c>
       <c r="BU26" s="1">
-        <v>1598.980000</v>
+        <v>1598.98</v>
       </c>
       <c r="BV26" s="1">
-        <v>-827.329000</v>
+        <v>-827.32899999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>19627.312774</v>
+        <v>19627.312774000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.452031</v>
+        <v>5.4520309999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1750.200000</v>
+        <v>1750.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1099.980000</v>
+        <v>-1099.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>19640.632845</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.455731</v>
+        <v>5.4557310000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2165.480000</v>
+        <v>2165.48</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1761.820000</v>
+        <v>-1761.82</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>